--- a/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-16,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-40,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>102,47%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-85,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,94</t>
+          <t>-25,43; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,85</t>
+          <t>-22,78; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,0</t>
+          <t>-59,89; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 305,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 981,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,4; 365,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>135,66%</t>
+          <t>-40,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,01%</t>
+          <t>102,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,35%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>-85,08%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,11</t>
+          <t>-2,66; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,5</t>
+          <t>-0,69; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,67</t>
+          <t>-2,03; 2,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 8,81</t>
+          <t>-9,79; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,32; —</t>
+          <t>-100,0; 305,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,57; 210,91</t>
+          <t>-73,21; 981,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,72; 147,32</t>
+          <t>-65,4; 365,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-86,7; 198,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-72,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>179,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>159,82%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,09; 3,04</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 0,56</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 4,16</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 16,89</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-81,73; 479,61</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-25,43; 0,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 0,0</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-59,89; 0,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,88; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>135,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-72,15%</t>
+          <t>-35,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>179,7%</t>
+          <t>-39,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>159,82%</t>
+          <t>-25,03%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,04</t>
+          <t>-0,6; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,56</t>
+          <t>-3,01; 1,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,16</t>
+          <t>-3,63; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 16,89</t>
+          <t>-16,8; 8,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 479,61</t>
+          <t>-53,32; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,57; 210,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-78,88; —</t>
+          <t>-86,72; 147,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,7; 198,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 0,0</t>
+          <t>-25,83; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 0,0</t>
+          <t>-22,81; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,71</t>
+          <t>-3,83; 0,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -0,54</t>
+          <t>-7,35; -0,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,69</t>
+          <t>0,63; 6,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 37,49</t>
+          <t>-6,68; 34,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,06</t>
+          <t>-100,0; 136,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,41</t>
+          <t>-2,71; 1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,94</t>
+          <t>-0,7; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,85</t>
+          <t>-1,76; 2,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,0</t>
+          <t>-10,27; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 305,26</t>
+          <t>-100,0; 267,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 981,01</t>
+          <t>-73,48; 1218,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,4; 365,79</t>
+          <t>-59,69; 367,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,04</t>
+          <t>-2,2; 3,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,56</t>
+          <t>-3,29; 0,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,16</t>
+          <t>-0,44; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 16,89</t>
+          <t>-6,16; 16,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 479,61</t>
+          <t>-79,82; 521,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,88; —</t>
+          <t>-73,21; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,11</t>
+          <t>-0,77; 4,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,5</t>
+          <t>-3,3; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,67</t>
+          <t>-3,59; 1,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 8,81</t>
+          <t>-17,19; 9,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,32; —</t>
+          <t>-66,08; 1133,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-86,57; 210,91</t>
+          <t>-88,61; 176,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-86,72; 147,32</t>
+          <t>-86,74; 162,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-86,7; 198,49</t>
+          <t>-90,64; 237,28</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,4</t>
+          <t>-0,96; 1,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,08</t>
+          <t>-2,22; 0,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,55</t>
+          <t>-0,9; 1,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,49</t>
+          <t>-4,47; 5,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 136,71</t>
+          <t>-46,55; 145,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,17; 13,47</t>
+          <t>-74,45; 6,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 153,76</t>
+          <t>-36,98; 116,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,15; 163,63</t>
+          <t>-61,66; 202,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 0,0</t>
+          <t>-27,43; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-25,08; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,89; 0,0</t>
+          <t>-58,99; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,68</t>
+          <t>-4,28; 0,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,55</t>
+          <t>-6,94; -0,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,22</t>
+          <t>0,64; 6,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 34,96</t>
+          <t>-6,66; 32,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,16</t>
+          <t>-100,0; 85,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,13</t>
+          <t>-2,96; 1,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,9</t>
+          <t>-0,77; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,8</t>
+          <t>-1,77; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 0,0</t>
+          <t>-9,86; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,59</t>
+          <t>-100,0; 211,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,48; 1218,54</t>
+          <t>-65,69; 1144,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 367,81</t>
+          <t>-62,4; 390,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,36</t>
+          <t>-1,95; 3,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,55</t>
+          <t>-3,33; 0,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,95</t>
+          <t>-0,43; 4,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 16,96</t>
+          <t>-4,1; 16,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,82; 521,48</t>
+          <t>-81,28; 643,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,04</t>
+          <t>-0,72; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,38</t>
+          <t>-3,24; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,66</t>
+          <t>-3,79; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 9,13</t>
+          <t>-16,86; 8,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,08; 1133,06</t>
+          <t>-51,44; 1099,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-88,61; 176,12</t>
+          <t>-89,79; 211,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-86,74; 162,03</t>
+          <t>-89,73; 114,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-90,64; 237,28</t>
+          <t>-85,91; 332,67</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,49</t>
+          <t>-1,06; 1,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,03</t>
+          <t>-2,28; 0,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,43</t>
+          <t>-1,06; 1,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,91</t>
+          <t>-5,19; 5,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 145,41</t>
+          <t>-47,77; 145,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,45; 6,19</t>
+          <t>-75,23; 18,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 116,76</t>
+          <t>-45,2; 119,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,66; 202,85</t>
+          <t>-64,71; 182,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-88,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,74; 0,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; -1,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 3,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 25,29</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-27,43; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-25,08; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-58,99; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 32,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-66,6%</t>
+          <t>-40,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-82,95%</t>
+          <t>102,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>158,31%</t>
+          <t>-84,81%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,7</t>
+          <t>-2,66; 1,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -0,54</t>
+          <t>-0,69; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,19</t>
+          <t>-2,03; 2,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 32,62</t>
+          <t>-9,92; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 305,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,9</t>
+          <t>-73,21; 981,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,4; 365,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,55%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>102,47%</t>
+          <t>-72,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>179,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-85,08%</t>
+          <t>160,67%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,11</t>
+          <t>-2,09; 3,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,26</t>
+          <t>-3,14; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,9</t>
+          <t>-0,61; 4,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 0,0</t>
+          <t>-3,92; 16,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 211,82</t>
+          <t>-81,73; 479,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,69; 1144,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 390,94</t>
+          <t>-78,88; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>135,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-72,15%</t>
+          <t>-35,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>179,7%</t>
+          <t>-39,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>159,82%</t>
+          <t>-25,28%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,35</t>
+          <t>-0,6; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,55</t>
+          <t>-3,01; 1,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,41</t>
+          <t>-3,63; 1,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 16,56</t>
+          <t>-16,56; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,28; 643,0</t>
+          <t>-53,32; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,57; 210,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,72; 147,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,34; 197,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>135,66%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-35,01%</t>
+          <t>-45,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-39,35%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,11</t>
+          <t>-0,97; 1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,32</t>
+          <t>-2,22; 0,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,3</t>
+          <t>-1,03; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 8,92</t>
+          <t>-4,96; 5,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 1099,53</t>
+          <t>-49,04; 136,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-89,79; 211,43</t>
+          <t>-74,17; 13,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 114,45</t>
+          <t>-41,68; 153,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-85,91; 332,67</t>
+          <t>-68,19; 168,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>13,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-45,84%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 1,37</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 0,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 1,5</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 5,46</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-47,77; 145,76</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-75,23; 18,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-45,2; 119,33</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-64,71; 182,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
